--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2706.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2706.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166558535882324</v>
+        <v>0.8046784400939941</v>
       </c>
       <c r="B1">
-        <v>2.411398458528007</v>
+        <v>1.829840540885925</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.528347492218018</v>
       </c>
       <c r="D1">
-        <v>2.34328630137421</v>
+        <v>1.430051684379578</v>
       </c>
       <c r="E1">
-        <v>1.215938019299404</v>
+        <v>1.451180100440979</v>
       </c>
     </row>
   </sheetData>
